--- a/Banco de Dados/1º Semestre/API/Sprint 4/API-Porygon/database/infodados.xlsx
+++ b/Banco de Dados/1º Semestre/API/Sprint 4/API-Porygon/database/infodados.xlsx
@@ -482,7 +482,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="20.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
@@ -989,7 +989,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="30.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
@@ -1306,13 +1306,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="30.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
@@ -1594,23 +1594,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lucas alexandre da silva santos</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159753258-74</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>lucass@pbltex.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1628,7 +1611,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="30.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
@@ -2039,7 +2022,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
@@ -5920,7 +5903,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -5999,7 +5982,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="14.29071428571429" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
